--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3008548.596684512</v>
+        <v>3167912.56220945</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526077</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577129</v>
+        <v>612367.9462114761</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4821518.330812775</v>
+        <v>5082247.237150697</v>
       </c>
     </row>
     <row r="11">
@@ -662,19 +664,19 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>337.3016457302693</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>273.7327837126139</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
@@ -820,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>221.6049436348345</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -883,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>164.7493014126461</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +898,13 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>67.78545404784762</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -914,7 +916,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>335.8891107890323</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
@@ -1057,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>57.24387488545779</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1114,10 +1116,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>62.24197988766019</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1151,7 +1153,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>306.4066295226368</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>334.6169627254346</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1293,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>47.64387834968407</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>69.09987724984268</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1373,22 +1375,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>249.9997080697398</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -1528,10 +1530,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>25.3058437232452</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>51.5854374042941</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1613,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>190.7952211553319</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1783,7 +1785,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1815,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>1.185332176673528</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.3923313037389</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1849,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -1859,7 +1861,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>75.30362264056416</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>19.53872709080487</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2093,7 +2095,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H20" t="n">
         <v>294.8896947407055</v>
@@ -2239,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>74.37409663181585</v>
+        <v>78.16614128474212</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -2482,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>75.30362264056416</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>162.4409478454593</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2713,25 +2715,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>51.58543740428449</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,19 +2769,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3826040147083</v>
       </c>
       <c r="V28" t="n">
-        <v>94.81937421946502</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>35.51998788130945</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>75.41330364725212</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3010,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3184,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>213.3528967098532</v>
+        <v>127.1775712042722</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>78.16614128474215</v>
       </c>
       <c r="C37" t="n">
-        <v>105.2349389792871</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396345</v>
+        <v>34.54790254396397</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>78.0525882037357</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3721,13 +3723,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>192.6105508316656</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3752,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -3791,7 +3793,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3800,13 +3802,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>166.5730286269757</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3907,16 +3909,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>50.15606440719147</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>156.3950745845505</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3986,13 +3988,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>19.24432214535658</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4034,7 +4036,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4043,7 +4045,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>28.16874740712031</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>151.615176928213</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4195,13 +4197,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>441.968462424482</v>
+        <v>1506.281939527789</v>
       </c>
       <c r="C2" t="n">
-        <v>419.1081364781862</v>
+        <v>1483.421613581493</v>
       </c>
       <c r="D2" t="n">
-        <v>399.8559197035906</v>
+        <v>1060.128992766493</v>
       </c>
       <c r="E2" t="n">
-        <v>377.9193838918522</v>
+        <v>634.152052914351</v>
       </c>
       <c r="F2" t="n">
-        <v>37.21065083097405</v>
+        <v>613.0682751441552</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082674</v>
+        <v>336.5705138182826</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231747</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231747</v>
       </c>
       <c r="J2" t="n">
-        <v>399.5154512777223</v>
+        <v>42.20451238440444</v>
       </c>
       <c r="K2" t="n">
-        <v>399.5154512777223</v>
+        <v>42.20451238440444</v>
       </c>
       <c r="L2" t="n">
-        <v>399.5154512777223</v>
+        <v>521.1434366268331</v>
       </c>
       <c r="M2" t="n">
-        <v>475.942330131692</v>
+        <v>521.1434366268331</v>
       </c>
       <c r="N2" t="n">
-        <v>932.7282368344229</v>
+        <v>521.1434366268331</v>
       </c>
       <c r="O2" t="n">
-        <v>1389.514143537154</v>
+        <v>1000.082360869262</v>
       </c>
       <c r="P2" t="n">
-        <v>1389.514143537154</v>
+        <v>1479.021285111691</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="T2" t="n">
-        <v>1624.67405208597</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="U2" t="n">
-        <v>1624.67405208597</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="V2" t="n">
-        <v>1267.18463721222</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="W2" t="n">
-        <v>870.7932875125664</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="X2" t="n">
-        <v>863.1136927207177</v>
+        <v>1927.427169824025</v>
       </c>
       <c r="Y2" t="n">
-        <v>861.8168267160121</v>
+        <v>1926.130303819319</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565625</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000789</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231747</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273854</v>
+        <v>46.14877825422931</v>
       </c>
       <c r="J3" t="n">
-        <v>44.35863542273854</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>44.35863542273854</v>
+        <v>796.7851917762491</v>
       </c>
       <c r="L3" t="n">
-        <v>44.35863542273854</v>
+        <v>1275.724116018678</v>
       </c>
       <c r="M3" t="n">
-        <v>501.1445421254694</v>
+        <v>1754.663040261106</v>
       </c>
       <c r="N3" t="n">
-        <v>957.9304488282003</v>
+        <v>1754.663040261106</v>
       </c>
       <c r="O3" t="n">
-        <v>1414.716355530931</v>
+        <v>1754.663040261106</v>
       </c>
       <c r="P3" t="n">
-        <v>1414.716355530931</v>
+        <v>1754.663040261106</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>632.4625091466944</v>
+        <v>38.70213529231747</v>
       </c>
       <c r="C4" t="n">
-        <v>632.4625091466944</v>
+        <v>38.70213529231747</v>
       </c>
       <c r="D4" t="n">
-        <v>469.1457362734651</v>
+        <v>38.70213529231747</v>
       </c>
       <c r="E4" t="n">
-        <v>302.9375304263186</v>
+        <v>38.70213529231747</v>
       </c>
       <c r="F4" t="n">
-        <v>302.9375304263186</v>
+        <v>38.70213529231747</v>
       </c>
       <c r="G4" t="n">
-        <v>136.6805607205508</v>
+        <v>38.70213529231747</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>38.70213529231747</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231747</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>96.19346351647549</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>322.7210647223127</v>
       </c>
       <c r="L4" t="n">
-        <v>675.6202431852428</v>
+        <v>677.4103860167335</v>
       </c>
       <c r="M4" t="n">
-        <v>1066.806038155494</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1072.572152198911</v>
+        <v>1162.079293773447</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878674</v>
+        <v>1517.50742245321</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1808.106634375112</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="R4" t="n">
-        <v>1845.599623041337</v>
+        <v>1888.068151303047</v>
       </c>
       <c r="S4" t="n">
-        <v>1845.599623041337</v>
+        <v>1717.933103822182</v>
       </c>
       <c r="T4" t="n">
-        <v>1845.599623041337</v>
+        <v>1474.593756048082</v>
       </c>
       <c r="U4" t="n">
-        <v>1621.756245632413</v>
+        <v>1194.409307548386</v>
       </c>
       <c r="V4" t="n">
-        <v>1340.044778240442</v>
+        <v>912.6978401564147</v>
       </c>
       <c r="W4" t="n">
-        <v>1065.192374412955</v>
+        <v>637.8454363289277</v>
       </c>
       <c r="X4" t="n">
-        <v>822.6284778587601</v>
+        <v>395.2815397747328</v>
       </c>
       <c r="Y4" t="n">
-        <v>822.6284778587601</v>
+        <v>228.8681040043831</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1716.447907866797</v>
+        <v>1639.919330369398</v>
       </c>
       <c r="C5" t="n">
-        <v>1693.587581920501</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D5" t="n">
-        <v>1625.117426316614</v>
+        <v>1193.766383608102</v>
       </c>
       <c r="E5" t="n">
-        <v>1199.140486464472</v>
+        <v>1171.829847796364</v>
       </c>
       <c r="F5" t="n">
-        <v>774.0163046538721</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G5" t="n">
-        <v>369.6772422433207</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>493.6978991635576</v>
+        <v>572.914647509062</v>
       </c>
       <c r="L5" t="n">
-        <v>950.4838058662885</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M5" t="n">
-        <v>950.4838058662885</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N5" t="n">
-        <v>1271.257381456703</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O5" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1741.232328914477</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>1741.232328914477</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V5" t="n">
-        <v>1741.232328914477</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W5" t="n">
-        <v>1741.232328914477</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="X5" t="n">
-        <v>1733.552734122628</v>
+        <v>1657.024156625229</v>
       </c>
       <c r="Y5" t="n">
-        <v>1732.255868117923</v>
+        <v>1655.727290620524</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273858</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>316.0561247023297</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>316.0561247023297</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L6" t="n">
-        <v>316.0561247023297</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>316.0561247023297</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N6" t="n">
-        <v>772.8420314050605</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O6" t="n">
-        <v>1229.627938107791</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P6" t="n">
-        <v>1686.413844810522</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>804.324283372134</v>
+        <v>268.5772905989122</v>
       </c>
       <c r="C7" t="n">
-        <v>804.324283372134</v>
+        <v>268.5772905989122</v>
       </c>
       <c r="D7" t="n">
-        <v>641.0075104989047</v>
+        <v>268.5772905989122</v>
       </c>
       <c r="E7" t="n">
-        <v>474.7993046517582</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="F7" t="n">
-        <v>302.9375304263186</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G7" t="n">
-        <v>136.6805607205508</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1444.297549031529</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1799.725677711293</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>1845.599623041337</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1845.599623041337</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1565.415174541641</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V7" t="n">
-        <v>1283.70370714967</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W7" t="n">
-        <v>1283.70370714967</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X7" t="n">
-        <v>1220.833020394458</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y7" t="n">
-        <v>994.4902520841997</v>
+        <v>458.7432593109778</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>859.1491609566978</v>
+        <v>831.8385222885897</v>
       </c>
       <c r="C8" t="n">
-        <v>836.288835010402</v>
+        <v>808.9781963422939</v>
       </c>
       <c r="D8" t="n">
-        <v>817.0366182358063</v>
+        <v>789.7259795676982</v>
       </c>
       <c r="E8" t="n">
-        <v>795.1000824240679</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F8" t="n">
-        <v>774.0163046538721</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>369.6772422433207</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>493.6978991635576</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>932.027809635875</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M8" t="n">
-        <v>932.027809635875</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N8" t="n">
-        <v>1388.813716338606</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O8" t="n">
-        <v>1845.599623041337</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P8" t="n">
-        <v>1845.599623041337</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1624.67405208597</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1624.67405208597</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V8" t="n">
-        <v>1624.67405208597</v>
+        <v>1657.054697076327</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.67405208597</v>
+        <v>1260.663347376674</v>
       </c>
       <c r="X8" t="n">
-        <v>1212.954053253717</v>
+        <v>1252.983752584825</v>
       </c>
       <c r="Y8" t="n">
-        <v>874.9571212078238</v>
+        <v>847.6464825397157</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.689621525072</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980092</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809133</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851735</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082694</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273878</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.0561247023298</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>475.2419029331441</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L9" t="n">
-        <v>932.027809635875</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M9" t="n">
-        <v>1388.813716338606</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N9" t="n">
-        <v>1845.599623041337</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1845.599623041337</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>1845.599623041337</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>618.5955731436038</v>
+        <v>955.8175733480448</v>
       </c>
       <c r="C10" t="n">
-        <v>618.5955731436038</v>
+        <v>783.8450102269608</v>
       </c>
       <c r="D10" t="n">
-        <v>618.5955731436038</v>
+        <v>620.5282373537315</v>
       </c>
       <c r="E10" t="n">
-        <v>618.5955731436038</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F10" t="n">
-        <v>446.7337989181643</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>280.4768292123964</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1444.297549031529</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1444.297549031529</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1734.89676095343</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>1628.425962247645</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>1385.086614473545</v>
+        <v>2176.78612281623</v>
       </c>
       <c r="U10" t="n">
-        <v>1104.902165973849</v>
+        <v>1896.601674316534</v>
       </c>
       <c r="V10" t="n">
-        <v>1104.902165973849</v>
+        <v>1614.890206924563</v>
       </c>
       <c r="W10" t="n">
-        <v>1035.104310165927</v>
+        <v>1614.890206924563</v>
       </c>
       <c r="X10" t="n">
-        <v>1035.104310165927</v>
+        <v>1372.326310370368</v>
       </c>
       <c r="Y10" t="n">
-        <v>808.7615418556695</v>
+        <v>1145.98354206011</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1049.778315921866</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>622.8775859351665</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>370.3526282889647</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>370.3526282889647</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>370.3526282889647</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>370.3526282889647</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>72.48424976299951</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>72.48424976299951</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>787.9925577384986</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1684.985148555618</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2581.977739372736</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>3478.970330189855</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O11" t="n">
-        <v>3478.970330189855</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P11" t="n">
-        <v>3478.970330189855</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>3624.212488149976</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3519.845194023116</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3298.919623067749</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
-        <v>3040.564713664162</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2683.075298790412</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>2286.683949090759</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>1874.963950258506</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>1469.626680213396</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2382.648348600922</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>2265.142445118426</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>2161.302486633711</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>2056.600552906649</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>1962.954722589553</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>1868.900950807157</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>1815.524857569466</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>1822.971500531378</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>1822.971500531378</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K12" t="n">
-        <v>1822.971500531378</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L12" t="n">
-        <v>2659.770308614285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M12" t="n">
-        <v>3556.762899431404</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N12" t="n">
-        <v>3556.762899431404</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O12" t="n">
-        <v>3624.212488149976</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P12" t="n">
-        <v>3624.212488149976</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q12" t="n">
-        <v>3624.212488149976</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>3624.212488149976</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>3542.888240711231</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>3401.008305008909</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>3216.240108928545</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>3011.266970067812</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>2814.745592901029</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>2651.268246667692</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>2511.575358020984</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>296.5633153126634</v>
+        <v>601.2341827829796</v>
       </c>
       <c r="C13" t="n">
-        <v>124.5907521915794</v>
+        <v>575.6727244766713</v>
       </c>
       <c r="D13" t="n">
-        <v>124.5907521915794</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E13" t="n">
-        <v>124.5907521915794</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F13" t="n">
-        <v>124.5907521915794</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G13" t="n">
-        <v>124.5907521915794</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H13" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2205.858663863301</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2035.723616382436</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>1792.384268608336</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>1512.19982010864</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>1230.488352716669</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W13" t="n">
-        <v>955.6359488891819</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="X13" t="n">
-        <v>713.072052334987</v>
+        <v>1017.742919805303</v>
       </c>
       <c r="Y13" t="n">
-        <v>486.7292840247291</v>
+        <v>791.4001514950452</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2510.883034420487</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>2083.982304433787</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>809.5885619560448</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G14" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H14" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>1150.596016555394</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1150.596016555394</v>
+        <v>2101.340160059446</v>
       </c>
       <c r="M14" t="n">
-        <v>2047.588607372513</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N14" t="n">
-        <v>2944.581198189632</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O14" t="n">
-        <v>3050.57067376389</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P14" t="n">
-        <v>3050.57067376389</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q14" t="n">
-        <v>3506.656153268073</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3519.845194023116</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3519.845194023116</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3519.845194023116</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3519.845194023116</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3123.453844323463</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>2930.731398712017</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2930.731398712017</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>79.93089272491135</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>351.6283820045024</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K15" t="n">
-        <v>351.6283820045024</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L15" t="n">
-        <v>351.6283820045024</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="M15" t="n">
-        <v>351.6283820045024</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N15" t="n">
-        <v>527.5451254692584</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O15" t="n">
-        <v>1417.02640348073</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P15" t="n">
-        <v>1417.02640348073</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q15" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.6928091661523</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="C16" t="n">
-        <v>983.6928091661523</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D16" t="n">
-        <v>820.376036292923</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E16" t="n">
-        <v>654.1678304457765</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F16" t="n">
-        <v>482.306056220337</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G16" t="n">
-        <v>316.0490865145691</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H16" t="n">
-        <v>172.2528180227235</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2205.858663863301</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2204.661358634338</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>2204.661358634338</v>
+        <v>1901.5094221427</v>
       </c>
       <c r="U16" t="n">
-        <v>1924.476910134642</v>
+        <v>1621.324973643005</v>
       </c>
       <c r="V16" t="n">
-        <v>1642.765442742671</v>
+        <v>1621.324973643005</v>
       </c>
       <c r="W16" t="n">
-        <v>1642.765442742671</v>
+        <v>1346.472569815518</v>
       </c>
       <c r="X16" t="n">
-        <v>1400.201546188476</v>
+        <v>1103.908673261323</v>
       </c>
       <c r="Y16" t="n">
-        <v>1173.858777878218</v>
+        <v>1103.908673261323</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5497,16 @@
         <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5516,22 +5518,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4090.576687723259</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4798.855966881186</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5589,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>1210.799010768326</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M18" t="n">
-        <v>1446.844867123559</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N18" t="n">
-        <v>1446.844867123559</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O18" t="n">
-        <v>1446.844867123559</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P18" t="n">
-        <v>1446.844867123559</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1085.715267670341</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C19" t="n">
-        <v>913.7427045492574</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="D19" t="n">
-        <v>750.4259316760281</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="E19" t="n">
-        <v>584.2177258288816</v>
+        <v>178.3669786993277</v>
       </c>
       <c r="F19" t="n">
-        <v>412.355951603442</v>
+        <v>178.3669786993277</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>2039.376393044857</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>2019.640305074347</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1744.78790124686</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>1502.224004692665</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>1275.881236382407</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5750,28 +5752,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5786,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5826,22 +5828,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1165.735894343786</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.1116442217531</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C22" t="n">
-        <v>759.1116442217531</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="D22" t="n">
-        <v>759.1116442217531</v>
+        <v>181.2584116732448</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5950,10 +5952,10 @@
         <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>985.454412532011</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>759.1116442217531</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="23">
@@ -5987,16 +5989,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
         <v>3561.711740982687</v>
@@ -6066,28 +6068,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>855.9588572096898</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C25" t="n">
-        <v>683.9862940886057</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="D25" t="n">
-        <v>683.9862940886057</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>178.3669786993277</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>178.3669786993277</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6172,25 +6174,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>2071.595362005666</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>2071.595362005666</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.883894613695</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1515.031490786208</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.467594232013</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>1046.124825921755</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.532766690843</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6300,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>109.7493563677404</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>109.7493563677404</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L27" t="n">
-        <v>109.7493563677404</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M27" t="n">
-        <v>1165.735894343786</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N27" t="n">
-        <v>1165.735894343786</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O27" t="n">
-        <v>1165.735894343786</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1013.511272808982</v>
+        <v>326.3817789554827</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>154.4092158343987</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>154.4092158343987</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>154.4092158343987</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6415,19 +6417,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1542.018283751459</v>
       </c>
       <c r="V28" t="n">
-        <v>1446.241138075242</v>
+        <v>1260.306816359488</v>
       </c>
       <c r="W28" t="n">
-        <v>1446.241138075242</v>
+        <v>985.4544125320012</v>
       </c>
       <c r="X28" t="n">
-        <v>1203.677241521047</v>
+        <v>742.8905159778063</v>
       </c>
       <c r="Y28" t="n">
-        <v>1203.677241521047</v>
+        <v>516.5477476675484</v>
       </c>
     </row>
     <row r="29">
@@ -6467,22 +6469,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M29" t="n">
-        <v>2110.0395278175</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N29" t="n">
-        <v>3086.290586304201</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O29" t="n">
-        <v>3931.435236455013</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P29" t="n">
-        <v>4639.71451561294</v>
+        <v>4714.375569412722</v>
       </c>
       <c r="Q29" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6543,25 +6545,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>692.7876399741681</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="O30" t="n">
-        <v>1582.26891798564</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>648.2727960958064</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C31" t="n">
-        <v>476.3002329747223</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="D31" t="n">
-        <v>476.3002329747223</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="E31" t="n">
-        <v>440.421457337036</v>
+        <v>350.3395418204117</v>
       </c>
       <c r="F31" t="n">
-        <v>268.5596831115964</v>
+        <v>178.4777675949721</v>
       </c>
       <c r="G31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1307.345429672325</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>1064.78153311813</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>838.4387648078721</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6703,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6774,28 +6776,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>939.4897558901635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>939.4897558901635</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M33" t="n">
-        <v>939.4897558901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N33" t="n">
-        <v>939.4897558901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O33" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P33" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
         <v>1828.971033901635</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>769.9464360574118</v>
+        <v>440.483482374059</v>
       </c>
       <c r="C34" t="n">
-        <v>769.9464360574118</v>
+        <v>268.510919252975</v>
       </c>
       <c r="D34" t="n">
-        <v>606.6296631841825</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E34" t="n">
-        <v>440.421457337036</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F34" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
         <v>102.3027134058285</v>
@@ -6898,10 +6900,10 @@
         <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>769.9464360574118</v>
+        <v>856.9922193963826</v>
       </c>
       <c r="Y34" t="n">
-        <v>769.9464360574118</v>
+        <v>630.6494510861246</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988734</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.067963188322</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623568</v>
@@ -6935,37 +6937,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N35" t="n">
-        <v>3114.325629236558</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O35" t="n">
-        <v>3959.47027938737</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P35" t="n">
-        <v>4667.749558545297</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -6977,7 +6979,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7017,25 +7019,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>692.7876399741681</v>
+        <v>275.974508780231</v>
       </c>
       <c r="L36" t="n">
-        <v>1194.79262694784</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.79262694784</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N36" t="n">
-        <v>1194.79262694784</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O36" t="n">
-        <v>1194.79262694784</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1020.040622710153</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C37" t="n">
-        <v>913.7427045492574</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D37" t="n">
-        <v>750.4259316760281</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E37" t="n">
-        <v>584.2177258288816</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F37" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7093,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7120,25 +7122,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>2235.67712750613</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>2235.67712750613</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1953.965660114159</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1679.113256286672</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1436.549359732477</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>1210.206591422219</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="38">
@@ -7154,64 +7156,64 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988744</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883224</v>
+        <v>435.067963188323</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623578</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N38" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>3959.47027938737</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399956</v>
@@ -7248,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>739.6560874287652</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>739.6560874287652</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>850.1944999357521</v>
+        <v>3592.307024914129</v>
       </c>
       <c r="C40" t="n">
-        <v>850.1944999357521</v>
+        <v>3513.466026728537</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357521</v>
+        <v>3350.149253855308</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>3350.149253855308</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I40" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T40" t="n">
-        <v>2039.376393044857</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="U40" t="n">
-        <v>1759.191944545161</v>
+        <v>4617.77756099804</v>
       </c>
       <c r="V40" t="n">
-        <v>1477.48047715319</v>
+        <v>4336.066093606069</v>
       </c>
       <c r="W40" t="n">
-        <v>1282.924365202012</v>
+        <v>4061.213689778582</v>
       </c>
       <c r="X40" t="n">
-        <v>1040.360468647818</v>
+        <v>3818.649793224387</v>
       </c>
       <c r="Y40" t="n">
-        <v>1040.360468647818</v>
+        <v>3592.307024914129</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1683.251351194936</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>1256.350621208236</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1256.350621208236</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>830.3736813560932</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>405.2494995454934</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>72.4842497629995</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>411.4408419788392</v>
+        <v>1082.193820490624</v>
       </c>
       <c r="L41" t="n">
-        <v>1308.433432795958</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M41" t="n">
-        <v>1308.433432795958</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N41" t="n">
-        <v>2205.426023613077</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>3050.570673763889</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>3050.570673763889</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3506.656153268072</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149975</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3519.845194023115</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3298.919623067748</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>3040.564713664161</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2683.075298790411</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>2683.075298790411</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>2271.355299958158</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2103.099715486465</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944547</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119595</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272445</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001817</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>72.4842497629995</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>72.4842497629995</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>94.69801151491879</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L42" t="n">
-        <v>94.69801151491879</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M42" t="n">
-        <v>991.6906023320375</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N42" t="n">
-        <v>991.6906023320375</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O42" t="n">
-        <v>1881.171880343509</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P42" t="n">
-        <v>1881.171880343509</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.227638861225</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145174</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1155.665372287236</v>
+        <v>3630.679144532</v>
       </c>
       <c r="C43" t="n">
-        <v>983.6928091661523</v>
+        <v>3458.706581410916</v>
       </c>
       <c r="D43" t="n">
-        <v>820.376036292923</v>
+        <v>3295.389808537686</v>
       </c>
       <c r="E43" t="n">
-        <v>654.1678304457765</v>
+        <v>3129.18160269054</v>
       </c>
       <c r="F43" t="n">
-        <v>482.306056220337</v>
+        <v>3129.18160269054</v>
       </c>
       <c r="G43" t="n">
-        <v>316.0490865145691</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H43" t="n">
-        <v>172.2528180227235</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I43" t="n">
-        <v>72.4842497629995</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871575</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929947</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874155</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R43" t="n">
-        <v>2252.897277176128</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S43" t="n">
-        <v>2252.897277176128</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T43" t="n">
-        <v>2252.897277176128</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U43" t="n">
-        <v>1972.712828676432</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V43" t="n">
-        <v>1814.738005863755</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="W43" t="n">
-        <v>1814.738005863755</v>
+        <v>4099.585809396453</v>
       </c>
       <c r="X43" t="n">
-        <v>1572.17410930956</v>
+        <v>3857.021912842258</v>
       </c>
       <c r="Y43" t="n">
-        <v>1345.831340999302</v>
+        <v>3630.679144532</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2232.453365132255</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>1805.552635145556</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>1382.260014330556</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>956.2830744784134</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F44" t="n">
-        <v>531.1588926678136</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>126.8198302572622</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>1150.596016555394</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1150.596016555394</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>1497.146744455149</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N44" t="n">
-        <v>1497.146744455149</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O44" t="n">
-        <v>2342.291394605961</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P44" t="n">
-        <v>3050.570673763889</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>3506.656153268072</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149975</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3519.845194023115</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3298.919623067748</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3040.564713664161</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3040.564713664161</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>2644.173363964508</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2232.453365132255</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2232.453365132255</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944547</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119595</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272445</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001817</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>72.4842497629995</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L45" t="n">
-        <v>275.4928852935395</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M45" t="n">
-        <v>275.4928852935395</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N45" t="n">
-        <v>275.4928852935395</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O45" t="n">
-        <v>1164.974163305011</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P45" t="n">
-        <v>1881.171880343509</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>908.227638861225</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145174</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1040.322384004603</v>
+        <v>606.7404520798269</v>
       </c>
       <c r="C46" t="n">
-        <v>868.3498208835192</v>
+        <v>434.7678889587429</v>
       </c>
       <c r="D46" t="n">
-        <v>705.0330480102899</v>
+        <v>434.7678889587429</v>
       </c>
       <c r="E46" t="n">
-        <v>538.8248421631434</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F46" t="n">
-        <v>366.9630679377038</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G46" t="n">
-        <v>200.706098231936</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>172.2528180227235</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2205.858663863301</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2035.723616382436</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T46" t="n">
-        <v>1792.384268608336</v>
+        <v>1912.395436663434</v>
       </c>
       <c r="U46" t="n">
-        <v>1512.19982010864</v>
+        <v>1632.210988163738</v>
       </c>
       <c r="V46" t="n">
-        <v>1230.488352716669</v>
+        <v>1350.499520771767</v>
       </c>
       <c r="W46" t="n">
-        <v>1230.488352716669</v>
+        <v>1075.64711694428</v>
       </c>
       <c r="X46" t="n">
-        <v>1230.488352716669</v>
+        <v>833.0832203900849</v>
       </c>
       <c r="Y46" t="n">
-        <v>1230.488352716669</v>
+        <v>606.7404520798269</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>32.95771412405821</v>
       </c>
       <c r="K2" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>522.0887335865913</v>
       </c>
       <c r="M2" t="n">
-        <v>114.6301304286942</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>521.1676505099924</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529641996</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8055,28 +8057,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.1759249873017</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>506.2917778681979</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>506.8734716662964</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>375.1348740725163</v>
+        <v>33.56260952839032</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8146,7 +8148,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>26.57325859521377</v>
+        <v>115.1762876285932</v>
       </c>
       <c r="O4" t="n">
         <v>381.5174992961649</v>
@@ -8213,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1645065551435</v>
+        <v>203.2524428583638</v>
       </c>
       <c r="L5" t="n">
-        <v>499.7119481929572</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>361.2933355520367</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8237,7 +8239,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
@@ -8304,16 +8306,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>267.4386025673074</v>
       </c>
       <c r="Q6" t="n">
-        <v>183.5407536736394</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8389,10 +8391,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>68.71811917318276</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,28 +8455,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>481.069527758196</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>451.134864077236</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,25 +8534,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>183.1929492179942</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>455.2848447234538</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8623,13 +8625,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O10" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>136.4406355808522</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>944.3651644701168</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>943.4843849369257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>943.33274487194</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>653.7961895378362</v>
       </c>
       <c r="Q11" t="n">
-        <v>182.8339250693662</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,25 +8774,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>929.1499025498219</v>
+        <v>1036.252296164244</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>91.30278741774966</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,25 +8932,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>968.5400018884037</v>
       </c>
       <c r="M14" t="n">
-        <v>943.4843849369257</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>943.33274487194</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>144.451035693658</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
@@ -9009,25 +9011,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>647.5129654954686</v>
       </c>
       <c r="N15" t="n">
-        <v>199.036708480972</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,10 +9166,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9176,13 +9178,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>236.8553498857486</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9237,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>261.5269384469069</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1034.498543865458</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1027.220259954781</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>489.184786214375</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9419,10 +9421,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9486,13 +9488,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>774.1253005797566</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9644,10 +9646,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>883.9207714806259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>489.184786214375</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9714,7 +9716,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>195.5685862122801</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
@@ -9723,7 +9725,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>1121.661155963915</v>
@@ -9735,10 +9737,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>229.9501690078907</v>
+        <v>705.1634862205228</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9896,7 +9898,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,19 +9950,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>299.9167405677024</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
@@ -9969,13 +9971,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>305.7192985581352</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,10 +10117,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10130,10 +10132,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>322.1890847023786</v>
       </c>
       <c r="R29" t="n">
-        <v>54.56363491934598</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10193,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
@@ -10200,19 +10202,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>398.1526904575372</v>
       </c>
       <c r="O30" t="n">
         <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>353.8126856499787</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10361,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>143.6953511146608</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,31 +10424,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>586.0789411493253</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>453.1210588457837</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10589,13 +10591,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>324.3764525304035</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10604,7 +10606,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>369.2860653765445</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10665,10 +10667,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>618.848654609434</v>
+        <v>197.8252897670732</v>
       </c>
       <c r="L36" t="n">
-        <v>529.5908311320803</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
@@ -10686,7 +10688,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,22 +10825,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>758.5002654165255</v>
+        <v>583.8722719747271</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>625.4779643536363</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10896,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
@@ -10905,13 +10907,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>658.7845120283961</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -10923,7 +10925,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>378.1449969724252</v>
+        <v>659.2874778330922</v>
       </c>
       <c r="L41" t="n">
-        <v>944.3651644701166</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>943.3327448719398</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11133,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>44.8373770170902</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>929.1499025498217</v>
+        <v>292.9765727881122</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,19 +11302,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>387.4825032022146</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>891.0724241548241</v>
+        <v>492.8628464086332</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11376,25 +11378,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>227.5743145228559</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>784.7707473298946</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23261,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>169.0599865371099</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23416,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>144.9469937666279</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -23428,10 +23430,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>90.77286840263305</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23546,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>216.8075776885983</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>167.248364829383</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>78.51362299262013</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>89.29077736814602</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>259.3556256272465</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>90.17202715685913</v>
+        <v>86.37998250393285</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>89.29077736814602</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>78.46500645089972</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>118.5577190789007</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0749784985863</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>129.0261359073655</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>89.18109636145806</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>26.78536087879971</v>
+        <v>112.9606863843808</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="C37" t="n">
-        <v>65.01789851058604</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25360,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>92.20024928613745</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>79.49332895754648</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>234.7108687176829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>114.4383356015187</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>122.4992781335009</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25880,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>275.6453725953489</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25922,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>114.1895583998068</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>89.29077736814597</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>346339.3678481837</v>
+        <v>435573.5624315216</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>346339.3678481836</v>
+        <v>435573.5624315216</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>435573.5624315215</v>
+        <v>435573.5624315216</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>435573.5624315216</v>
+        <v>435573.5624315214</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>346339.3678481836</v>
+        <v>435573.5624315216</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>346339.3678481836</v>
+        <v>435573.5624315216</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>567881.601310884</v>
+        <v>567881.6013108838</v>
       </c>
       <c r="C2" t="n">
-        <v>567881.6013108841</v>
+        <v>567881.6013108839</v>
       </c>
       <c r="D2" t="n">
-        <v>567881.6013108838</v>
+        <v>567881.6013108839</v>
       </c>
       <c r="E2" t="n">
-        <v>435717.2692283599</v>
+        <v>547979.643059011</v>
       </c>
       <c r="F2" t="n">
-        <v>435717.2692283598</v>
+        <v>547979.6430590106</v>
       </c>
       <c r="G2" t="n">
         <v>547979.6430590109</v>
@@ -26332,28 +26334,28 @@
         <v>547979.6430590107</v>
       </c>
       <c r="I2" t="n">
-        <v>547979.6430590111</v>
+        <v>547979.6430590109</v>
       </c>
       <c r="J2" t="n">
-        <v>547979.6430590109</v>
+        <v>547979.6430590107</v>
       </c>
       <c r="K2" t="n">
-        <v>547979.6430590109</v>
+        <v>547979.643059011</v>
       </c>
       <c r="L2" t="n">
-        <v>547979.6430590107</v>
+        <v>547979.643059011</v>
       </c>
       <c r="M2" t="n">
-        <v>547979.6430590107</v>
+        <v>547979.643059011</v>
       </c>
       <c r="N2" t="n">
         <v>547979.6430590107</v>
       </c>
       <c r="O2" t="n">
-        <v>435717.2692283598</v>
+        <v>547979.643059011</v>
       </c>
       <c r="P2" t="n">
-        <v>435717.2692283595</v>
+        <v>547979.6430590111</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695913</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.8336736121</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096018</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943099</v>
+        <v>6.548361852765082e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.6003570197</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6.548361852765082e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091333</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161210.2618115457</v>
+        <v>156089.064077723</v>
       </c>
       <c r="C4" t="n">
-        <v>161210.2618115457</v>
+        <v>139507.7493322929</v>
       </c>
       <c r="D4" t="n">
-        <v>161210.2618115457</v>
+        <v>139507.7493322929</v>
       </c>
       <c r="E4" t="n">
-        <v>623.8421757123213</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="F4" t="n">
-        <v>623.842175712321</v>
+        <v>800.0602599433114</v>
       </c>
       <c r="G4" t="n">
-        <v>800.0602599433673</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="H4" t="n">
+        <v>800.0602599433284</v>
+      </c>
+      <c r="I4" t="n">
         <v>800.0602599433671</v>
       </c>
-      <c r="I4" t="n">
-        <v>800.0602599433672</v>
-      </c>
       <c r="J4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599432361</v>
       </c>
       <c r="K4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="L4" t="n">
+        <v>800.060259943367</v>
+      </c>
+      <c r="M4" t="n">
         <v>800.0602599433671</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>800.0602599433423</v>
+      </c>
+      <c r="O4" t="n">
         <v>800.0602599433672</v>
       </c>
-      <c r="N4" t="n">
-        <v>800.0602599433671</v>
-      </c>
-      <c r="O4" t="n">
-        <v>623.842175712321</v>
-      </c>
       <c r="P4" t="n">
-        <v>623.842175712321</v>
+        <v>800.0602599433672</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216127</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987963</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987963</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987962</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987962</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>190364.9046109894</v>
+        <v>186626.6183414081</v>
       </c>
       <c r="C6" t="n">
-        <v>344990.6252291101</v>
+        <v>337520.7672675507</v>
       </c>
       <c r="D6" t="n">
-        <v>344990.6252291098</v>
+        <v>360927.6009411628</v>
       </c>
       <c r="E6" t="n">
-        <v>247241.7292231661</v>
+        <v>253690.1640539973</v>
       </c>
       <c r="F6" t="n">
-        <v>380005.3972327678</v>
+        <v>469429.5206106377</v>
       </c>
       <c r="G6" t="n">
-        <v>367269.6005163278</v>
+        <v>469429.5206106377</v>
       </c>
       <c r="H6" t="n">
         <v>469429.5206106377</v>
       </c>
       <c r="I6" t="n">
-        <v>469429.520610638</v>
+        <v>469429.5206106378</v>
       </c>
       <c r="J6" t="n">
-        <v>348707.0036678809</v>
+        <v>342852.252030349</v>
       </c>
       <c r="K6" t="n">
+        <v>450782.9202536182</v>
+      </c>
+      <c r="L6" t="n">
         <v>469429.5206106378</v>
       </c>
-      <c r="L6" t="n">
-        <v>469429.5206106377</v>
-      </c>
       <c r="M6" t="n">
-        <v>358620.1605015044</v>
+        <v>289365.6491554703</v>
       </c>
       <c r="N6" t="n">
         <v>469429.5206106377</v>
       </c>
       <c r="O6" t="n">
-        <v>380005.3972327678</v>
+        <v>469429.520610638</v>
       </c>
       <c r="P6" t="n">
-        <v>380005.3972327675</v>
+        <v>469429.520610638</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374939</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374939</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374937</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374937</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162574</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771597</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353628</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162574</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771595</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162574</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771597</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353628</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,19 +27384,19 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="E2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>83.5712942622244</v>
-      </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>126.562888073832</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27430,16 +27432,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27540,22 +27542,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>55.77766037986427</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>59.33003921450924</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27618,13 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>351.2742405590021</v>
-      </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -27676,7 +27678,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>56.53832541362431</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27777,13 +27779,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>107.3022489032172</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>177.8962777009927</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>47.50789120237619</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>66.66693461922392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>193.2620759466749</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>203.0040025393694</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28813,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29487,7 +29489,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>-8.573655816929799e-12</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -30241,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-5.464171643889758e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>3.537754638471684</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="M2" t="n">
-        <v>77.19886752926237</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34775,28 +34777,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>352.3878357835378</v>
+        <v>10.81557123941182</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34866,7 +34868,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>5.82435761961338</v>
+        <v>94.42738665299285</v>
       </c>
       <c r="O4" t="n">
         <v>359.0183117977405</v>
@@ -34933,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>461.3999057603342</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="L5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>324.0137127175907</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -34957,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,16 +35026,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="Q6" t="n">
-        <v>160.7937153846609</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35109,10 +35111,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>46.33731851519627</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>415.010189472638</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>160.7937153846609</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35343,13 +35345,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>111.8210728160673</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>906.0531220374939</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>906.0531220374939</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>906.0531220374939</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>616.220827727605</v>
       </c>
       <c r="Q11" t="n">
-        <v>146.7092504647682</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35494,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>906.0531220374939</v>
+        <v>1013.155515651916</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>68.13089769552744</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>930.2279594557808</v>
       </c>
       <c r="M14" t="n">
-        <v>906.0531220374939</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374939</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>107.0600763376339</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
@@ -35729,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>624.4161849831406</v>
       </c>
       <c r="N15" t="n">
-        <v>177.6936802674303</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,10 +35886,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35896,13 +35898,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>200.7306752811506</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>238.4301579345789</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1013.155515651916</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>989.7889970553492</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>451.905163379929</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36139,10 +36141,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>752.782272366215</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36364,10 +36366,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>846.4895085811942</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>451.905163379929</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>174.9574718789468</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>1100.318127750374</v>
@@ -36455,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>191.6381265752678</v>
+        <v>666.8514437878999</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36616,7 +36618,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>277.4016538534729</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36689,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>283.9484573533065</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,10 +36837,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36850,10 +36852,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="R29" t="n">
-        <v>19.53098502454951</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36920,19 +36922,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>376.8096622439955</v>
       </c>
       <c r="O30" t="n">
         <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>332.04184444515</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37081,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>106.3043917586367</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>563.6797073159919</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>430.0242783334557</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>82.84778796434657</v>
@@ -37309,13 +37311,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37324,7 +37326,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>333.1613907719464</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37385,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>596.4494207761006</v>
+        <v>175.4260559337398</v>
       </c>
       <c r="L36" t="n">
-        <v>507.0757444178507</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37406,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,22 +37545,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>722.7356646217162</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>587.902602543405</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,13 +37627,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>636.2694253141665</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>342.3803961776159</v>
+        <v>623.5228770382829</v>
       </c>
       <c r="L41" t="n">
-        <v>906.0531220374937</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>906.0531220374937</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>22.43814318375686</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>906.0531220374937</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,19 +38022,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>350.0512403027828</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>853.6814647988001</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>205.0592278086263</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>761.6739668175666</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3167912.56220945</v>
+        <v>3167215.901004359</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114761</v>
+        <v>612367.9462114756</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
@@ -673,7 +673,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>273.7327837126139</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -712,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>245.0349156457978</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -885,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>164.7493014126461</v>
+        <v>68.50862025508836</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>118.8456430702453</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>335.8891107890323</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1056,25 +1056,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>57.24387488545779</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303395</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>223.9133497557906</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
@@ -1147,7 +1147,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>306.4066295226368</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1302,7 +1302,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1311,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="T10" t="n">
-        <v>47.64387834968407</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>260.4446813871647</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1423,10 +1423,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1530,22 +1530,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>25.3058437232452</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686834</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1590,7 +1590,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1615,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1767,10 +1767,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1782,7 +1782,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>162.3923313037389</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>63.08758251923062</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>98.15366458399271</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>75.30362264056416</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -2095,7 +2095,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
         <v>294.8896947407055</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>78.16614128474212</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2298,7 +2298,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>42.31046081014885</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>75.30362264056416</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2538,7 +2538,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>200.1143878900198</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>51.58543740428449</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040147083</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>75.41330364725212</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3252,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>127.1775712042722</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3286,7 +3286,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396168</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>78.16614128474215</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3432,13 +3432,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>11.07215425001596</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3523,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396397</v>
+        <v>34.54790254396168</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>78.0525882037357</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>205.3931121155064</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3793,7 +3793,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>50.15606440719147</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3988,7 +3988,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T46" t="n">
-        <v>151.615176928213</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1506.281939527789</v>
+        <v>826.0424325316598</v>
       </c>
       <c r="C2" t="n">
-        <v>1483.421613581493</v>
+        <v>803.182106585364</v>
       </c>
       <c r="D2" t="n">
-        <v>1060.128992766493</v>
+        <v>783.9298898107683</v>
       </c>
       <c r="E2" t="n">
-        <v>634.152052914351</v>
+        <v>357.9529499586258</v>
       </c>
       <c r="F2" t="n">
-        <v>613.0682751441552</v>
+        <v>336.8691721884301</v>
       </c>
       <c r="G2" t="n">
-        <v>336.5705138182826</v>
+        <v>336.5705138182828</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231747</v>
+        <v>38.70213529231763</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231747</v>
+        <v>38.70213529231763</v>
       </c>
       <c r="J2" t="n">
-        <v>42.20451238440444</v>
+        <v>401.3055941092131</v>
       </c>
       <c r="K2" t="n">
-        <v>42.20451238440444</v>
+        <v>880.2445183516438</v>
       </c>
       <c r="L2" t="n">
-        <v>521.1434366268331</v>
+        <v>1359.183442594074</v>
       </c>
       <c r="M2" t="n">
-        <v>521.1434366268331</v>
+        <v>1817.550429733979</v>
       </c>
       <c r="N2" t="n">
-        <v>521.1434366268331</v>
+        <v>1817.550429733979</v>
       </c>
       <c r="O2" t="n">
-        <v>1000.082360869262</v>
+        <v>1817.550429733979</v>
       </c>
       <c r="P2" t="n">
-        <v>1479.021285111691</v>
+        <v>1817.550429733979</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615874</v>
+        <v>1817.550429733979</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615874</v>
+        <v>1935.106764615881</v>
       </c>
       <c r="S2" t="n">
-        <v>1935.106764615874</v>
+        <v>1935.106764615881</v>
       </c>
       <c r="T2" t="n">
-        <v>1935.106764615874</v>
+        <v>1714.181193660515</v>
       </c>
       <c r="U2" t="n">
-        <v>1935.106764615874</v>
+        <v>1455.826284256927</v>
       </c>
       <c r="V2" t="n">
-        <v>1935.106764615874</v>
+        <v>1098.336869383176</v>
       </c>
       <c r="W2" t="n">
-        <v>1935.106764615874</v>
+        <v>850.8268535793401</v>
       </c>
       <c r="X2" t="n">
-        <v>1927.427169824025</v>
+        <v>843.1472587874914</v>
       </c>
       <c r="Y2" t="n">
-        <v>1926.130303819319</v>
+        <v>841.8503927827858</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.8256263237727</v>
+        <v>605.8256263237729</v>
       </c>
       <c r="C3" t="n">
-        <v>488.3197228412774</v>
+        <v>488.3197228412777</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565625</v>
+        <v>384.4797643565627</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294997</v>
+        <v>279.7778306294999</v>
       </c>
       <c r="F3" t="n">
-        <v>186.1320003124039</v>
+        <v>186.132000312404</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000789</v>
+        <v>92.07822853000803</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231747</v>
+        <v>38.70213529231763</v>
       </c>
       <c r="I3" t="n">
-        <v>46.14877825422931</v>
+        <v>38.70213529231763</v>
       </c>
       <c r="J3" t="n">
-        <v>317.8462675338204</v>
+        <v>38.70213529231763</v>
       </c>
       <c r="K3" t="n">
-        <v>796.7851917762491</v>
+        <v>38.70213529231763</v>
       </c>
       <c r="L3" t="n">
-        <v>1275.724116018678</v>
+        <v>410.5729931455355</v>
       </c>
       <c r="M3" t="n">
-        <v>1754.663040261106</v>
+        <v>889.5119173879662</v>
       </c>
       <c r="N3" t="n">
-        <v>1754.663040261106</v>
+        <v>1368.450841630397</v>
       </c>
       <c r="O3" t="n">
-        <v>1754.663040261106</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="P3" t="n">
-        <v>1754.663040261106</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="Q3" t="n">
-        <v>1765.370455788124</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
         <v>1847.389765872827</v>
@@ -4451,10 +4451,10 @@
         <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>874.445524390543</v>
+        <v>874.4455243905433</v>
       </c>
       <c r="Y3" t="n">
-        <v>734.7526357438354</v>
+        <v>734.7526357438356</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.70213529231747</v>
+        <v>786.5939218222412</v>
       </c>
       <c r="C4" t="n">
-        <v>38.70213529231747</v>
+        <v>786.5939218222412</v>
       </c>
       <c r="D4" t="n">
-        <v>38.70213529231747</v>
+        <v>786.5939218222412</v>
       </c>
       <c r="E4" t="n">
-        <v>38.70213529231747</v>
+        <v>620.3857159750947</v>
       </c>
       <c r="F4" t="n">
-        <v>38.70213529231747</v>
+        <v>448.5239417496551</v>
       </c>
       <c r="G4" t="n">
-        <v>38.70213529231747</v>
+        <v>282.2669720438873</v>
       </c>
       <c r="H4" t="n">
-        <v>38.70213529231747</v>
+        <v>138.4707035520417</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231747</v>
+        <v>38.70213529231763</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647549</v>
+        <v>96.19346351647565</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223127</v>
+        <v>165.7127968735099</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167335</v>
+        <v>520.4021181679307</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.596180986984</v>
+        <v>911.5879131381814</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773447</v>
+        <v>1289.079424014217</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.50742245321</v>
+        <v>1644.50755269398</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375112</v>
+        <v>1935.106764615881</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615874</v>
+        <v>1935.106764615881</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303047</v>
+        <v>1935.106764615881</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.933103822182</v>
+        <v>1935.106764615881</v>
       </c>
       <c r="T4" t="n">
-        <v>1474.593756048082</v>
+        <v>1935.106764615881</v>
       </c>
       <c r="U4" t="n">
-        <v>1194.409307548386</v>
+        <v>1654.922316116186</v>
       </c>
       <c r="V4" t="n">
-        <v>912.6978401564147</v>
+        <v>1373.210848724214</v>
       </c>
       <c r="W4" t="n">
-        <v>637.8454363289277</v>
+        <v>1098.358444896727</v>
       </c>
       <c r="X4" t="n">
-        <v>395.2815397747328</v>
+        <v>855.7945483425325</v>
       </c>
       <c r="Y4" t="n">
-        <v>228.8681040043831</v>
+        <v>786.5939218222412</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1639.919330369398</v>
+        <v>632.9324701037876</v>
       </c>
       <c r="C5" t="n">
-        <v>1213.018600382698</v>
+        <v>610.0721441574918</v>
       </c>
       <c r="D5" t="n">
-        <v>1193.766383608102</v>
+        <v>590.8199273828961</v>
       </c>
       <c r="E5" t="n">
-        <v>1171.829847796364</v>
+        <v>164.8429875307537</v>
       </c>
       <c r="F5" t="n">
-        <v>746.7056659857641</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4567,52 +4567,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>572.914647509062</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>1123.5801824935</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M5" t="n">
-        <v>1674.245717477938</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N5" t="n">
-        <v>2224.911252462377</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O5" t="n">
-        <v>2224.911252462377</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.98568150701</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V5" t="n">
-        <v>2003.98568150701</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="W5" t="n">
-        <v>1664.703751417078</v>
+        <v>1465.797699232276</v>
       </c>
       <c r="X5" t="n">
-        <v>1657.024156625229</v>
+        <v>1054.077700400023</v>
       </c>
       <c r="Y5" t="n">
-        <v>1655.727290620524</v>
+        <v>1052.780834395318</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336857</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="M6" t="n">
-        <v>595.1637600336857</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N6" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O6" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5772905989122</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>268.5772905989122</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>268.5772905989122</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>210.7551947550154</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>210.7551947550154</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4737,13 +4737,13 @@
         <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
         <v>2224.911252462377</v>
@@ -4752,25 +4752,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894585</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394889</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002918</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754307</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212358</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109778</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>831.8385222885897</v>
+        <v>427.7981182481856</v>
       </c>
       <c r="C8" t="n">
-        <v>808.9781963422939</v>
+        <v>404.9377923018898</v>
       </c>
       <c r="D8" t="n">
-        <v>789.7259795676982</v>
+        <v>385.6855755272941</v>
       </c>
       <c r="E8" t="n">
-        <v>767.7894437559598</v>
+        <v>363.7490397155557</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G8" t="n">
         <v>342.3666035752127</v>
@@ -4804,25 +4804,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L8" t="n">
-        <v>44.49822504924753</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M8" t="n">
-        <v>44.49822504924753</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N8" t="n">
-        <v>595.1637600336857</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O8" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>1696.494830002562</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4837,19 +4837,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1657.054697076327</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W8" t="n">
-        <v>1260.663347376674</v>
+        <v>1471.030487888973</v>
       </c>
       <c r="X8" t="n">
-        <v>1252.983752584825</v>
+        <v>1059.31048905672</v>
       </c>
       <c r="Y8" t="n">
-        <v>847.6464825397157</v>
+        <v>653.9732190116105</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>323.6423572907505</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>323.6423572907505</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L9" t="n">
-        <v>323.6423572907505</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M9" t="n">
-        <v>323.6423572907505</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="N9" t="n">
-        <v>874.3078922751886</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="O9" t="n">
-        <v>874.3078922751886</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="P9" t="n">
-        <v>1424.973427259627</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>955.8175733480448</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C10" t="n">
-        <v>783.8450102269608</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D10" t="n">
-        <v>620.5282373537315</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E10" t="n">
-        <v>454.3200315065851</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4989,25 +4989,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>2176.78612281623</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1896.601674316534</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V10" t="n">
-        <v>1614.890206924563</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W10" t="n">
-        <v>1614.890206924563</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X10" t="n">
-        <v>1372.326310370368</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y10" t="n">
-        <v>1145.98354206011</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="11">
@@ -5050,19 +5050,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2110.0395278175</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>3086.290586304201</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O11" t="n">
-        <v>3931.435236455013</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P11" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R11" t="n">
         <v>5115.135670291427</v>
@@ -5071,7 +5071,7 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
@@ -5129,19 +5129,19 @@
         <v>109.7493563677404</v>
       </c>
       <c r="M12" t="n">
-        <v>1112.773316863137</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N12" t="n">
-        <v>1112.773316863137</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O12" t="n">
-        <v>1112.773316863137</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P12" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>601.2341827829796</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C13" t="n">
-        <v>575.6727244766713</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D13" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E13" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F13" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G13" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
         <v>102.3027134058285</v>
@@ -5220,31 +5220,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V13" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W13" t="n">
-        <v>1260.306816359498</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X13" t="n">
-        <v>1017.742919805303</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y13" t="n">
-        <v>791.4001514950452</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="14">
@@ -5260,19 +5260,19 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
@@ -5284,16 +5284,16 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>2101.340160059446</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>3105.626261478504</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>3105.626261478504</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>3950.770911629316</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P14" t="n">
         <v>4659.050190787244</v>
@@ -5317,7 +5317,7 @@
         <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
         <v>3365.887132399956</v>
@@ -5354,28 +5354,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L15" t="n">
-        <v>1210.799010768326</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M15" t="n">
-        <v>1828.971033901635</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N15" t="n">
-        <v>1828.971033901635</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O15" t="n">
-        <v>1828.971033901635</v>
+        <v>1270.928123658803</v>
       </c>
       <c r="P15" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
         <v>1828.971033901635</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>913.7427045492574</v>
+        <v>778.6022263052665</v>
       </c>
       <c r="C16" t="n">
-        <v>913.7427045492574</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="D16" t="n">
-        <v>750.4259316760281</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E16" t="n">
-        <v>584.2177258288816</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F16" t="n">
-        <v>412.355951603442</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G16" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
         <v>102.3027134058285</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>1901.5094221427</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>1621.324973643005</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V16" t="n">
-        <v>1621.324973643005</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W16" t="n">
-        <v>1346.472569815518</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X16" t="n">
-        <v>1103.908673261323</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="Y16" t="n">
-        <v>1103.908673261323</v>
+        <v>968.7681950173321</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5515,52 +5515,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H18" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>109.7493563677404</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J18" t="n">
-        <v>109.7493563677404</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="K18" t="n">
-        <v>109.7493563677404</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="L18" t="n">
-        <v>109.7493563677404</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M18" t="n">
-        <v>109.7493563677404</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N18" t="n">
-        <v>1112.773316863137</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O18" t="n">
-        <v>1112.773316863137</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P18" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>516.5477476675582</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>344.5751845464741</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D19" t="n">
-        <v>344.5751845464741</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E19" t="n">
-        <v>178.3669786993277</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F19" t="n">
-        <v>178.3669786993277</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
         <v>102.3027134058285</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.5477476675582</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
         <v>435.0679631883225</v>
@@ -5752,7 +5752,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
@@ -5764,40 +5764,40 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>1756.220820912125</v>
       </c>
       <c r="N21" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>516.5477476675582</v>
+        <v>612.3940204581199</v>
       </c>
       <c r="C22" t="n">
-        <v>344.5751845464741</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="D22" t="n">
-        <v>181.2584116732448</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G22" t="n">
         <v>102.3027134058285</v>
@@ -5910,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1546.319057862125</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1271.466654034638</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>1028.902757480444</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>802.5599891701856</v>
       </c>
     </row>
     <row r="23">
@@ -6001,10 +6001,10 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O23" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P23" t="n">
         <v>5115.135670291427</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>275.5106105659859</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K24" t="n">
-        <v>275.5106105659859</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L24" t="n">
-        <v>275.5106105659859</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M24" t="n">
-        <v>275.5106105659859</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N24" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>516.5477476675582</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>344.5751845464741</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>344.5751845464741</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>178.3669786993277</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>178.3669786993277</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6229,19 +6229,19 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2129.375202991803</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3105.626261478504</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>3950.770911629316</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P26" t="n">
         <v>4659.050190787244</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K27" t="n">
-        <v>374.0002026854196</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L27" t="n">
-        <v>648.6278400003578</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="M27" t="n">
-        <v>648.6278400003578</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N27" t="n">
-        <v>648.6278400003578</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>648.6278400003578</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>326.3817789554827</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>154.4092158343987</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>154.4092158343987</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>154.4092158343987</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751459</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359488</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>985.4544125320012</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778063</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675484</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1180.414480198223</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M29" t="n">
-        <v>2184.700581617281</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N29" t="n">
-        <v>3160.951640103982</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O29" t="n">
-        <v>4006.096290254794</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
-        <v>4714.375569412722</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,28 +6539,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N30" t="n">
-        <v>475.3442790273841</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O30" t="n">
-        <v>1364.825557038856</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P30" t="n">
-        <v>1364.825557038856</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q30" t="n">
         <v>1828.971033901635</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>516.5477476675582</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>516.5477476675582</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>516.5477476675582</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>350.3395418204117</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>178.4777675949721</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>939.1015214887346</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M33" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N33" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O33" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P33" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>440.483482374059</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C34" t="n">
-        <v>268.510919252975</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D34" t="n">
-        <v>268.510919252975</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X34" t="n">
-        <v>856.9922193963826</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y34" t="n">
-        <v>630.6494510861246</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063314</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076614</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261614</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409472</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.407025598872</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883206</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623554</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2467.904347614084</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3444.155406100785</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4289.300056251597</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164565</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209198</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.48789580561</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931859</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232206</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399954</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354844</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>669.4262044372838</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C36" t="n">
-        <v>551.9203009547886</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D36" t="n">
-        <v>448.0803424700736</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E36" t="n">
-        <v>343.3784087430108</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F36" t="n">
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>275.974508780231</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>1112.773316863137</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M36" t="n">
-        <v>1112.773316863137</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N36" t="n">
-        <v>1112.773316863137</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O36" t="n">
-        <v>1112.773316863137</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7058,10 +7058,10 @@
         <v>1101.523448737391</v>
       </c>
       <c r="X36" t="n">
-        <v>938.0461025040541</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y36" t="n">
-        <v>798.3532138573465</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>437.5920494001418</v>
+        <v>786.8947875232845</v>
       </c>
       <c r="C37" t="n">
-        <v>265.6194862790578</v>
+        <v>614.9222244022005</v>
       </c>
       <c r="D37" t="n">
-        <v>102.3027134058285</v>
+        <v>451.6054515289712</v>
       </c>
       <c r="E37" t="n">
-        <v>102.3027134058285</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G37" t="n">
         <v>102.3027134058285</v>
@@ -7095,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1445.967421099803</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>1203.403524545608</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>977.0607562353503</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063314</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076614</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261614</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409472</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988744</v>
+        <v>839.407025598872</v>
       </c>
       <c r="G38" t="n">
-        <v>435.067963188323</v>
+        <v>435.0679631883206</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623578</v>
+        <v>137.1995846623554</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164565</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209198</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.48789580561</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931859</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232206</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399954</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354844</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>669.4262044372838</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C39" t="n">
-        <v>551.9203009547886</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D39" t="n">
-        <v>448.0803424700736</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E39" t="n">
-        <v>343.3784087430108</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F39" t="n">
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N39" t="n">
         <v>1910.990343986338</v>
@@ -7295,10 +7295,10 @@
         <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>938.0461025040541</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y39" t="n">
-        <v>798.3532138573465</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3592.307024914129</v>
+        <v>446.137050752352</v>
       </c>
       <c r="C40" t="n">
-        <v>3513.466026728537</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>3350.149253855308</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>3350.149253855308</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>4897.962009497735</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>4617.77756099804</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>4336.066093606069</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>4061.213689778582</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>3818.649793224387</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>3592.307024914129</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7411,34 +7411,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
-        <v>1082.193820490624</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
         <v>4789.842805209199</v>
@@ -7453,7 +7453,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
         <v>2960.549862354846</v>
@@ -7493,25 +7493,25 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>381.4468456473314</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M42" t="n">
-        <v>648.6278400003578</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N42" t="n">
-        <v>648.6278400003578</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O42" t="n">
-        <v>648.6278400003578</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3630.679144532</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>3458.706581410916</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>3295.389808537686</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>3129.18160269054</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>3129.18160269054</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>4374.43821322394</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>4099.585809396453</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>3857.021912842258</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>3630.679144532</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
         <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H44" t="n">
         <v>137.1995846623573</v>
@@ -7648,7 +7648,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
         <v>1180.414480198223</v>
@@ -7663,37 +7663,37 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O44" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P44" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>692.7876399741681</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M45" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N45" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O45" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
         <v>1910.990343986338</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>606.7404520798269</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>434.7678889587429</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>434.7678889587429</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
         <v>102.3027134058285</v>
@@ -7806,10 +7806,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T46" t="n">
-        <v>1912.395436663434</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>1632.210988163738</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>1350.499520771767</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>1075.64711694428</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>833.0832203900849</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>606.7404520798269</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>32.95771412405821</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.5412919487796</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0887335865913</v>
+        <v>522.0887335865932</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>500.4282196064058</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>521.1676505099924</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529641996</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>506.1759249873017</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>506.2917778681979</v>
+        <v>398.1422158588941</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662964</v>
+        <v>506.8734716662983</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>505.119719367512</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>506.9485808761925</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.56260952839032</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>91.18620329820114</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8148,7 +8148,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>115.1762876285932</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
         <v>381.5174992961649</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>203.2524428583638</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>547.9365584046775</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,25 +8297,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>180.7888499740227</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>267.4386025673074</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8394,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>180.0440798263965</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
@@ -8464,7 +8464,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>593.6187724716183</v>
@@ -8473,7 +8473,7 @@
         <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>451.134864077236</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8531,31 +8531,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>177.0689530252722</v>
       </c>
       <c r="Q9" t="n">
-        <v>455.2848447234538</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8698,7 +8698,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
@@ -8707,13 +8707,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>653.7961895378362</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8777,10 +8777,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>1036.252296164244</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>1117.346331829804</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
@@ -8792,7 +8792,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,19 +8932,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>968.5400018884037</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>891.0724241548241</v>
+        <v>611.6066190166155</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
@@ -9011,22 +9011,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>647.5129654954686</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>116.6167335079122</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9166,16 +9166,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.179015540608</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9248,13 +9248,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>649.6845753175837</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1034.498543865458</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9263,10 +9263,10 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9412,19 +9412,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>489.184786214375</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>98.60750039798516</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,25 +9476,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>177.6758798036561</v>
       </c>
       <c r="O21" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9649,13 +9649,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>489.184786214375</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>195.5685862122801</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
@@ -9725,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>774.1253005797566</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9737,10 +9737,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>705.1634862205228</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9889,10 +9889,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>611.6066190166155</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
@@ -9950,19 +9950,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>299.9167405677024</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>400.8313794692496</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
@@ -9971,13 +9971,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>809.3863451554519</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10132,10 +10132,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>322.1890847023786</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,31 +10187,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>439.2211815900449</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>398.1526904575372</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
         <v>106.5207073584907</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10363,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>143.6953511146608</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,19 +10424,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>502.225283590884</v>
       </c>
       <c r="M33" t="n">
-        <v>453.1210588457837</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
@@ -10451,7 +10451,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>324.3764525304035</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602115987</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>197.8252897670732</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>502.225283590884</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
@@ -10682,13 +10682,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,10 +10825,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>583.8722719747271</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10840,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602115987</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11062,13 +11062,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>659.2874778330922</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
@@ -11077,13 +11077,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,13 +11141,13 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>292.9765727881122</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11156,13 +11156,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>492.8628464086332</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,19 +11372,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>784.7707473298946</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11396,7 +11396,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>144.9469937666279</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>71.98949189918815</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>78.51362299262013</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>160.9917581079247</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,13 +23898,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>66.39245920468227</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>89.29077736814602</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>86.37998250393285</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>236.5838919079025</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,13 +24372,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>89.29077736814602</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>71.9894918991923</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>118.5577190789007</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>89.18109636145806</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>112.9606863843808</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.826094830903457e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>153.473969538659</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>92.20024928613745</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -25566,10 +25566,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>71.98949189919239</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>114.4383356015187</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T46" t="n">
-        <v>89.29077736814597</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>435573.5624315216</v>
+        <v>435573.5624315217</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>435573.5624315216</v>
+        <v>435573.5624315217</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>435573.5624315214</v>
+        <v>435573.5624315216</v>
       </c>
     </row>
     <row r="11">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>567881.6013108838</v>
+        <v>567881.6013108841</v>
       </c>
       <c r="C2" t="n">
-        <v>567881.6013108839</v>
+        <v>567881.6013108841</v>
       </c>
       <c r="D2" t="n">
         <v>567881.6013108839</v>
       </c>
       <c r="E2" t="n">
+        <v>547979.6430590107</v>
+      </c>
+      <c r="F2" t="n">
+        <v>547979.6430590107</v>
+      </c>
+      <c r="G2" t="n">
         <v>547979.643059011</v>
-      </c>
-      <c r="F2" t="n">
-        <v>547979.6430590106</v>
-      </c>
-      <c r="G2" t="n">
-        <v>547979.6430590109</v>
       </c>
       <c r="H2" t="n">
         <v>547979.6430590107</v>
       </c>
       <c r="I2" t="n">
+        <v>547979.643059011</v>
+      </c>
+      <c r="J2" t="n">
         <v>547979.6430590109</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>547979.6430590112</v>
+      </c>
+      <c r="L2" t="n">
+        <v>547979.6430590109</v>
+      </c>
+      <c r="M2" t="n">
         <v>547979.6430590107</v>
-      </c>
-      <c r="K2" t="n">
-        <v>547979.643059011</v>
-      </c>
-      <c r="L2" t="n">
-        <v>547979.643059011</v>
-      </c>
-      <c r="M2" t="n">
-        <v>547979.643059011</v>
       </c>
       <c r="N2" t="n">
         <v>547979.6430590107</v>
       </c>
       <c r="O2" t="n">
-        <v>547979.643059011</v>
+        <v>547979.6430590107</v>
       </c>
       <c r="P2" t="n">
-        <v>547979.6430590111</v>
+        <v>547979.6430590107</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695913</v>
+        <v>162124.696069592</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.8336736121</v>
+        <v>23406.83367361147</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.548361852765082e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802888</v>
+        <v>126577.2685802894</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.6003570197</v>
+        <v>18646.6003570192</v>
       </c>
       <c r="L3" t="n">
-        <v>6.548361852765082e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551677</v>
+        <v>180063.8714551675</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156089.064077723</v>
+        <v>156089.0640777226</v>
       </c>
       <c r="C4" t="n">
         <v>139507.7493322929</v>
@@ -26426,40 +26426,40 @@
         <v>139507.7493322929</v>
       </c>
       <c r="E4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433673</v>
       </c>
       <c r="F4" t="n">
-        <v>800.0602599433114</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="G4" t="n">
+        <v>800.0602599433669</v>
+      </c>
+      <c r="H4" t="n">
         <v>800.0602599433671</v>
-      </c>
-      <c r="H4" t="n">
-        <v>800.0602599433284</v>
       </c>
       <c r="I4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="J4" t="n">
-        <v>800.0602599432361</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="K4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="L4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="M4" t="n">
+        <v>800.0602599433669</v>
+      </c>
+      <c r="N4" t="n">
+        <v>800.0602599434499</v>
+      </c>
+      <c r="O4" t="n">
         <v>800.0602599433671</v>
       </c>
-      <c r="N4" t="n">
-        <v>800.0602599433423</v>
-      </c>
-      <c r="O4" t="n">
-        <v>800.0602599433672</v>
-      </c>
       <c r="P4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216127</v>
+        <v>63041.22282216139</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26484,10 +26484,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>186626.6183414081</v>
       </c>
       <c r="C6" t="n">
-        <v>337520.7672675507</v>
+        <v>337520.7672675515</v>
       </c>
       <c r="D6" t="n">
         <v>360927.6009411628</v>
       </c>
       <c r="E6" t="n">
-        <v>253690.1640539973</v>
+        <v>253639.1333918128</v>
       </c>
       <c r="F6" t="n">
-        <v>469429.5206106377</v>
+        <v>469378.4899484534</v>
       </c>
       <c r="G6" t="n">
-        <v>469429.5206106377</v>
+        <v>469378.4899484538</v>
       </c>
       <c r="H6" t="n">
-        <v>469429.5206106377</v>
+        <v>469378.4899484534</v>
       </c>
       <c r="I6" t="n">
-        <v>469429.5206106378</v>
+        <v>469378.4899484536</v>
       </c>
       <c r="J6" t="n">
-        <v>342852.252030349</v>
+        <v>342801.2213681641</v>
       </c>
       <c r="K6" t="n">
-        <v>450782.9202536182</v>
+        <v>450731.8895914346</v>
       </c>
       <c r="L6" t="n">
-        <v>469429.5206106378</v>
+        <v>469378.4899484535</v>
       </c>
       <c r="M6" t="n">
-        <v>289365.6491554703</v>
+        <v>289314.6184932859</v>
       </c>
       <c r="N6" t="n">
-        <v>469429.5206106377</v>
+        <v>469378.4899484533</v>
       </c>
       <c r="O6" t="n">
-        <v>469429.520610638</v>
+        <v>469378.4899484534</v>
       </c>
       <c r="P6" t="n">
-        <v>469429.520610638</v>
+        <v>469378.4899484534</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539684</v>
+        <v>483.7766911539703</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26804,7 +26804,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="H4" t="n">
         <v>1278.783917572857</v>
@@ -26822,10 +26822,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="O4" t="n">
         <v>1278.783917572857</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539684</v>
+        <v>483.7766911539703</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162574</v>
+        <v>72.45112196162381</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539684</v>
+        <v>483.7766911539703</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162574</v>
+        <v>72.45112196162381</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.556104457262</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539684</v>
+        <v>483.7766911539703</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162574</v>
+        <v>72.45112196162381</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>126.562888073832</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>147.3925205568588</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -27545,19 +27545,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>59.33003921450924</v>
+        <v>155.570720372067</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>302.0272969222485</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>56.53832541362431</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>107.3022489032172</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,16 +27824,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>163.7887810877119</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>191.7365308928241</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27867,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>47.50789120237619</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,19 +28061,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>168.4336970060574</v>
       </c>
       <c r="T10" t="n">
-        <v>193.2620759466749</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>18.4496713308867</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28292,7 +28292,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29489,7 +29489,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>-8.573655816929799e-12</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -30243,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-5.464171643889758e-13</v>
+        <v>1.826094830903457e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.537754638471684</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.7766911539703</v>
       </c>
       <c r="L2" t="n">
-        <v>483.7766911539684</v>
+        <v>483.7766911539703</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>462.996956706974</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>483.7766911539684</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539684</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7766911539684</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>483.7766911539684</v>
+        <v>375.6271291446645</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539684</v>
+        <v>483.7766911539703</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>483.7766911539703</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>483.7766911539703</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.81557123941182</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>70.22154884548914</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34868,7 +34868,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>94.42738665299285</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
         <v>359.0183117977405</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>167.4878420635545</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>510.5455990486534</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>158.2737632597931</v>
+      </c>
+      <c r="M6" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>245.6677613624788</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35105,7 +35105,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404409</v>
       </c>
       <c r="O7" t="n">
         <v>359.0183117977405</v>
@@ -35114,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35184,7 +35184,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>556.2278131155941</v>
@@ -35193,7 +35193,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>415.010189472638</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35251,31 +35251,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>155.2981118204435</v>
       </c>
       <c r="Q9" t="n">
-        <v>432.5378064344753</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
@@ -35427,13 +35427,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>616.220827727605</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,10 +35497,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1013.155515651916</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1096.003303616263</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35588,7 +35588,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391573</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,19 +35652,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>930.2279594557808</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>853.6814647988001</v>
+        <v>574.2156596605913</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
@@ -35731,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>624.4161849831406</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>82.84778796434657</v>
@@ -35886,16 +35886,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.899392706162</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35968,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>627.1694886033541</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1013.155515651916</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36132,19 +36132,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>451.905163379929</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>62.48282579338712</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>156.3328515901145</v>
       </c>
       <c r="O21" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36369,13 +36369,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>451.905163379929</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>174.9574718789468</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36445,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>752.782272366215</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,10 +36597,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>666.8514437878999</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36609,10 +36609,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>574.2156596605913</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>277.4016538534729</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>377.7345989569216</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>771.074302722829</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36852,10 +36852,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>286.0644100977806</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>416.7060948758153</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>376.8096622439955</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>82.84778796434657</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37083,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3043917586367</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="M33" t="n">
-        <v>430.0242783334557</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>286.0644100977806</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013674</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>175.4260559337398</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,10 +37545,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>548.1076711799178</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37560,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013674</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>623.5228770382829</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
@@ -37797,13 +37797,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>269.8797922757842</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38031,16 +38031,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>455.4718870526091</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>761.6739668175666</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
